--- a/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/AverageMarkBySubject.xlsx
+++ b/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/AverageMarkBySubject.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Subject</t>
   </si>
@@ -27,17 +27,10 @@
     <t>6</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-Physics</t>
+    <t>Physics</t>
   </si>
   <si>
-    <t>5,88</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>4,67</t>
+    <t>6,25</t>
   </si>
 </sst>
 </file>
@@ -89,7 +82,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -123,14 +116,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
@@ -138,7 +123,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -164,6 +149,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
